--- a/Global-Variable Interaction/Global-Variable - Automation.xlsx
+++ b/Global-Variable Interaction/Global-Variable - Automation.xlsx
@@ -1,296 +1,693 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahmadi Trimananda\Downloads\Miscellaneous\iotcheck-data-master\iotcheck-data-master\Global-Variable Interaction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C31F74-DFB7-4767-91CF-E9BFF4EB242F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Conflicts" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Runtimes" sheetId="2" r:id="rId4"/>
+    <sheet name="Conflicts" sheetId="1" r:id="rId1"/>
+    <sheet name="Runtimes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D2">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000036000000}">
       <text>
-        <t xml:space="preserve">If the mode was {X, Y, or Z} then execute the phrase.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>This pair's execution doesn't have any conflict so it's finished in one round
+	-Rahmadi Trimananda</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D3">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Change the mode, when everybody leave the house.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode was {X, Y, or Z} then execute the phrase.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">If the mode triggeres try to set the settings of your bose.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode, when everybody leave the house.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D5">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">If the location changes, try to set the sunrise and sunset times according to the new location.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode triggeres try to set the settings of your bose.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D6">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">Change the mode by button selection.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes, try to set the sunrise and sunset times according to the new location.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D7">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">Turn on the lights and trigger the alarms if in the time between the event and time to turning on the lights and triggering the alarm, location has not changed.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode by button selection.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D8">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">When the mode changes to something that was preset in the settings by the user, start dimming. Then after that it is possible for app to set the mode to one that is pre-set in the settings.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Turn on the lights and trigger the alarms if in the time between the event and time to turning on the lights and triggering the alarm, location has not changed.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D9">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t xml:space="preserve">According to some events change the mode to one that is pre-set.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>When the mode changes to something that was preset in the settings by the user, start dimming. Then after that it is possible for app to set the mode to one that is pre-set in the settings.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D10">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t xml:space="preserve">Change the mode by user touch.
-</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>According to some events change the mode to one that is pre-set.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D11">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
-        <t xml:space="preserve">Change the mode to one that is pre-set when someone shows up.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Change the mode by user touch.
+</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D12">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
-        <t xml:space="preserve">Execute the phrase according to the location of people.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode to one that is pre-set when someone shows up.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D13">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
-        <t xml:space="preserve">Set brightness and color of the lights according to the mode change.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Execute the phrase according to the location of people.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D14">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
-        <t xml:space="preserve">If the location changed, set the heatingsetpoint and coolingsetpoint of the thermostat.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Set brightness and color of the lights according to the mode change.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D15">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
-        <t xml:space="preserve">Control up to 4 lights based on some events if the mode is something that was pre-set in the settings.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changed, set the heatingsetpoint and coolingsetpoint of the thermostat.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D16">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
-        <t xml:space="preserve">If the location changes, restore the state of the thermostat.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Control up to 4 lights based on some events if the mode is something that was pre-set in the settings.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D17">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
-        <t xml:space="preserve">If no one is home: change mode to A
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes, restore the state of the thermostat.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If no one is home: change mode to A
 If some one is home and this is nigth: mode B
 If some one is home and this is morning: mode C</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D18">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
-        <t xml:space="preserve">If the mode changes to something that is pre-set=&gt; set the color and hue of the bulbs.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode changes to something that is pre-set=&gt; set the color and hue of the bulbs.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D19">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
-        <t xml:space="preserve">When there is a motion in some specific window time, change the mode to the one that is pre-set.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>When there is a motion in some specific window time, change the mode to the one that is pre-set.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D20">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
-        <t xml:space="preserve">According to people's locations, execute the phrase.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>According to people's locations, execute the phrase.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D21">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
-        <t xml:space="preserve">Change mode at specific time of day.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change mode at specific time of day.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D22">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
-        <t xml:space="preserve">Trigger certain activity when the location changes to one that was pre-set.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Trigger certain activity when the location changes to one that was pre-set.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D23">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
-        <t xml:space="preserve">Change the location according to the button.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the location according to the button.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D24">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
-        <t xml:space="preserve">Get two list of loc inputs as: 1. Away, 2. Stay
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Get two list of loc inputs as: 1. Away, 2. Stay
 Arm or Disarm the alarm according to those locations. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D25">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
-        <t xml:space="preserve">4 schedule for turning on/off the lights if the location was the one that has been pre-set</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>4 schedule for turning on/off the lights if the location was the one that has been pre-set</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D26">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
-        <t xml:space="preserve">Set the location based on movement.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Set the location based on movement.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D27">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
-        <t xml:space="preserve">Play a song according to each mode.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Play a song according to each mode.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D28">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
-        <t xml:space="preserve">If the location changes set the volume of the speaker to one that has been setted.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes set the volume of the speaker to one that has been setted.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D29">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
-        <t xml:space="preserve">Play a selected song if the location has changed to pre-set location.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Play a selected song if the location has changed to pre-set location.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D30">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
-        <t xml:space="preserve">Play a sound or custome message if the mode changes to pre-set mode.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Play a sound or custome message if the mode changes to pre-set mode.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
-        <t xml:space="preserve">Report the weather if the mode changes to pre-set mode.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Report the weather if the mode changes to pre-set mode.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D32">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
-        <t xml:space="preserve">Change the mode based on local sunrise and sunset.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode based on local sunrise and sunset.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D33">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
-        <t xml:space="preserve">Change the mode to ModeOn and ModeOff according to switch state.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode to ModeOn and ModeOff according to switch state.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D34">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
-        <t xml:space="preserve">Change the mode to ModeOn and ModeOff according to switch state.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode to ModeOn and ModeOff according to switch state.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D35">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
-        <t xml:space="preserve">If the mode changes to the pre-set modes, restore the settings of the thermostat.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode changes to the pre-set modes, restore the settings of the thermostat.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D36">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
-        <t xml:space="preserve">If the location changes if no one is in house, randomly by frequency turn on/off the lights =&gt; Home is like the occupied home.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes if no one is in house, randomly by frequency turn on/off the lights =&gt; Home is like the occupied home.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D37">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
-        <t xml:space="preserve">Send a message if a person is still in home in a certain time.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Send a message if a person is still in home in a certain time.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D38">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
-        <t xml:space="preserve">Change the mode via button selection by user.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode via button selection by user.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D39">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
-        <t xml:space="preserve">If the mode changes to one of the pre-set modes, the app tries to set the settings of the lights to the pre-set settings.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode changes to one of the pre-set modes, the app tries to set the settings of the lights to the pre-set settings.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D40">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D41">
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
-        <t xml:space="preserve">Change the mode based on user touch.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode based on user touch.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D42">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
-        <t xml:space="preserve">Send a message if a person is still in home in a certain time.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Send a message if a person is still in home in a certain time.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E44">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
-        <t xml:space="preserve">The door will never be locked after x minutes that it is closed. (A person might be in the sense of presence sensor.)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>The door will never be locked after x minutes that it is closed. (A person might be in the sense of presence sensor.)
 ==&gt; "We want the room to be locked after x minutes."</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C51">
+    <comment ref="C51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D51">
+    <comment ref="D51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
-        <t xml:space="preserve">Change the mode by an app touch.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode by an app touch.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C52">
+    <comment ref="C52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D52">
+    <comment ref="D52" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002E000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C53">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002F000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D53">
+    <comment ref="D53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000030000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C54">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000031000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D54">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000032000000}">
       <text>
-        <t xml:space="preserve">Resume your ecobee program by changing the loc to the home locations.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Resume your ecobee program by changing the loc to the home locations.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C55">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000033000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D55">
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000034000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C57">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000035000000}">
       <text>
-        <t xml:space="preserve">Trigger 4 waking schedules and change the location in those times according to the pre-set settings for locations.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">This pair's execution doesn't have any conflict so it's finished in one round
-	-Rahmadi Trimananda</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Trigger 4 waking schedules and change the location in those times according to the pre-set settings for locations.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -298,279 +695,650 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D2">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <t xml:space="preserve">If the mode was {X, Y, or Z} then execute the phrase.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode was {X, Y, or Z} then execute the phrase.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D3">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
-        <t xml:space="preserve">Change the mode, when everybody leave the house.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode, when everybody leave the house.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D4">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
-        <t xml:space="preserve">If the mode triggeres try to set the settings of your bose.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode triggeres try to set the settings of your bose.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D5">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
-        <t xml:space="preserve">If the location changes, try to set the sunrise and sunset times according to the new location.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes, try to set the sunrise and sunset times according to the new location.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D6">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
-        <t xml:space="preserve">Change the mode by button selection.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode by button selection.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D7">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
-        <t xml:space="preserve">Turn on the lights and trigger the alarms if in the time between the event and time to turning on the lights and triggering the alarm, location has not changed.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Turn on the lights and trigger the alarms if in the time between the event and time to turning on the lights and triggering the alarm, location has not changed.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D8">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
-        <t xml:space="preserve">When the mode changes to something that was preset in the settings by the user, start dimming. Then after that it is possible for app to set the mode to one that is pre-set in the settings.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>When the mode changes to something that was preset in the settings by the user, start dimming. Then after that it is possible for app to set the mode to one that is pre-set in the settings.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D9">
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
-        <t xml:space="preserve">According to some events change the mode to one that is pre-set.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>According to some events change the mode to one that is pre-set.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D10">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
-        <t xml:space="preserve">Change the mode by user touch.
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Change the mode by user touch.
 </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D11">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
-        <t xml:space="preserve">Change the mode to one that is pre-set when someone shows up.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode to one that is pre-set when someone shows up.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D12">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
-        <t xml:space="preserve">Execute the phrase according to the location of people.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Execute the phrase according to the location of people.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D13">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
-        <t xml:space="preserve">Set brightness and color of the lights according to the mode change.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Set brightness and color of the lights according to the mode change.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D14">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
-        <t xml:space="preserve">If the location changed, set the heatingsetpoint and coolingsetpoint of the thermostat.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changed, set the heatingsetpoint and coolingsetpoint of the thermostat.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D15">
+    <comment ref="D15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
-        <t xml:space="preserve">Control up to 4 lights based on some events if the mode is something that was pre-set in the settings.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Control up to 4 lights based on some events if the mode is something that was pre-set in the settings.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D16">
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
-        <t xml:space="preserve">If the location changes, restore the state of the thermostat.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes, restore the state of the thermostat.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D17">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
-        <t xml:space="preserve">If no one is home: change mode to A
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If no one is home: change mode to A
 If some one is home and this is nigth: mode B
 If some one is home and this is morning: mode C</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D18">
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
-        <t xml:space="preserve">If the mode changes to something that is pre-set=&gt; set the color and hue of the bulbs.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode changes to something that is pre-set=&gt; set the color and hue of the bulbs.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D19">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
-        <t xml:space="preserve">When there is a motion in some specific window time, change the mode to the one that is pre-set.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>When there is a motion in some specific window time, change the mode to the one that is pre-set.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D20">
+    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
-        <t xml:space="preserve">According to people's locations, execute the phrase.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>According to people's locations, execute the phrase.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D21">
+    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
-        <t xml:space="preserve">Change mode at specific time of day.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change mode at specific time of day.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D22">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
-        <t xml:space="preserve">Trigger certain activity when the location changes to one that was pre-set.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Trigger certain activity when the location changes to one that was pre-set.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D23">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
-        <t xml:space="preserve">Change the location according to the button.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the location according to the button.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D24">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
-        <t xml:space="preserve">Get two list of loc inputs as: 1. Away, 2. Stay
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Get two list of loc inputs as: 1. Away, 2. Stay
 Arm or Disarm the alarm according to those locations. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D25">
+    <comment ref="D25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
-        <t xml:space="preserve">4 schedule for turning on/off the lights if the location was the one that has been pre-set</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>4 schedule for turning on/off the lights if the location was the one that has been pre-set</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D26">
+    <comment ref="D26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
-        <t xml:space="preserve">Set the location based on movement.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Set the location based on movement.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D27">
+    <comment ref="D27" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
-        <t xml:space="preserve">Play a song according to each mode.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Play a song according to each mode.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D28">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
-        <t xml:space="preserve">If the location changes set the volume of the speaker to one that has been setted.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes set the volume of the speaker to one that has been setted.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D29">
+    <comment ref="D29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
-        <t xml:space="preserve">Play a selected song if the location has changed to pre-set location.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Play a selected song if the location has changed to pre-set location.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D30">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
-        <t xml:space="preserve">Play a sound or custome message if the mode changes to pre-set mode.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Play a sound or custome message if the mode changes to pre-set mode.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D31">
+    <comment ref="D31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
-        <t xml:space="preserve">Report the weather if the mode changes to pre-set mode.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Report the weather if the mode changes to pre-set mode.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D32">
+    <comment ref="D32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
-        <t xml:space="preserve">Change the mode based on local sunrise and sunset.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode based on local sunrise and sunset.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D33">
+    <comment ref="D33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
-        <t xml:space="preserve">Change the mode to ModeOn and ModeOff according to switch state.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode to ModeOn and ModeOff according to switch state.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D34">
+    <comment ref="D34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
-        <t xml:space="preserve">Change the mode to ModeOn and ModeOff according to switch state.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode to ModeOn and ModeOff according to switch state.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D35">
+    <comment ref="D35" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
-        <t xml:space="preserve">If the mode changes to the pre-set modes, restore the settings of the thermostat.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode changes to the pre-set modes, restore the settings of the thermostat.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D36">
+    <comment ref="D36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
-        <t xml:space="preserve">If the location changes if no one is in house, randomly by frequency turn on/off the lights =&gt; Home is like the occupied home.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the location changes if no one is in house, randomly by frequency turn on/off the lights =&gt; Home is like the occupied home.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D37">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
-        <t xml:space="preserve">Send a message if a person is still in home in a certain time.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Send a message if a person is still in home in a certain time.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D38">
+    <comment ref="D38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
-        <t xml:space="preserve">Change the mode via button selection by user.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode via button selection by user.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D39">
+    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
       <text>
-        <t xml:space="preserve">If the mode changes to one of the pre-set modes, the app tries to set the settings of the lights to the pre-set settings.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>If the mode changes to one of the pre-set modes, the app tries to set the settings of the lights to the pre-set settings.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D40">
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D41">
+    <comment ref="D41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
       <text>
-        <t xml:space="preserve">Change the mode based on user touch.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode based on user touch.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D42">
+    <comment ref="D42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
       <text>
-        <t xml:space="preserve">Send a message if a person is still in home in a certain time.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Send a message if a person is still in home in a certain time.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="E44">
+    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
       <text>
-        <t xml:space="preserve">The door will never be locked after x minutes that it is closed. (A person might be in the sense of presence sensor.)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>The door will never be locked after x minutes that it is closed. (A person might be in the sense of presence sensor.)
 ==&gt; "We want the room to be locked after x minutes."</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C53">
+    <comment ref="C53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D53">
+    <comment ref="D53" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
       <text>
-        <t xml:space="preserve">Change the mode by an app touch.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Change the mode by an app touch.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C54">
+    <comment ref="C54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D54">
+    <comment ref="D54" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C55">
+    <comment ref="C55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D55">
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C56">
+    <comment ref="C56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D56">
+    <comment ref="D56" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
       <text>
-        <t xml:space="preserve">Resume your ecobee program by changing the loc to the home locations.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Resume your ecobee program by changing the loc to the home locations.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C57">
+    <comment ref="C57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
       <text>
-        <t xml:space="preserve">Both apps try to set the location based on different events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Both apps try to set the location based on different events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D57">
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
       <text>
-        <t xml:space="preserve">Use location for some events.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Use location for some events.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C59">
+    <comment ref="C59" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
       <text>
-        <t xml:space="preserve">Trigger 4 waking schedules and change the location in those times according to the pre-set settings for locations.</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Trigger 4 waking schedules and change the location in those times according to the pre-set settings for locations.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -733,9 +1501,6 @@
     <t>detected - user-user</t>
   </si>
   <si>
-    <t>98 conflicts + 14 new conflicts</t>
-  </si>
-  <si>
     <t>Pairs</t>
   </si>
   <si>
@@ -759,53 +1524,67 @@
   <si>
     <t>also the ecobee apps</t>
   </si>
+  <si>
+    <t>98 conflicts + 16 new conflicts</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -815,7 +1594,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -873,285 +1652,556 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="46" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="46" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="46" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="46" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="21" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="46" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="46" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AW65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5.0" ySplit="1.0" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F1" sqref="F1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="AO17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AV44" sqref="AV44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="4.86"/>
-    <col customWidth="1" min="3" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="4" width="33.0"/>
-    <col customWidth="1" min="5" max="5" width="12.14"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="18.0"/>
-    <col customWidth="1" min="8" max="8" width="15.86"/>
-    <col customWidth="1" min="9" max="9" width="20.43"/>
-    <col customWidth="1" min="10" max="10" width="23.29"/>
-    <col customWidth="1" min="11" max="11" width="16.14"/>
-    <col customWidth="1" min="12" max="12" width="18.29"/>
-    <col customWidth="1" min="13" max="13" width="16.14"/>
-    <col customWidth="1" min="14" max="14" width="19.57"/>
-    <col customWidth="1" min="15" max="15" width="14.71"/>
-    <col customWidth="1" min="16" max="16" width="16.86"/>
-    <col customWidth="1" min="17" max="17" width="14.57"/>
-    <col customWidth="1" min="18" max="18" width="14.29"/>
-    <col customWidth="1" min="19" max="19" width="15.57"/>
-    <col customWidth="1" min="20" max="20" width="15.0"/>
-    <col customWidth="1" min="21" max="21" width="13.71"/>
-    <col customWidth="1" min="22" max="22" width="14.14"/>
-    <col customWidth="1" min="23" max="23" width="13.43"/>
-    <col customWidth="1" min="24" max="24" width="15.57"/>
-    <col customWidth="1" min="25" max="25" width="14.29"/>
-    <col customWidth="1" min="26" max="26" width="18.14"/>
-    <col customWidth="1" min="27" max="27" width="20.14"/>
-    <col customWidth="1" min="28" max="28" width="18.29"/>
-    <col customWidth="1" min="29" max="30" width="17.71"/>
-    <col customWidth="1" min="31" max="31" width="16.0"/>
-    <col customWidth="1" min="32" max="32" width="15.14"/>
-    <col customWidth="1" min="33" max="33" width="18.86"/>
-    <col customWidth="1" min="34" max="34" width="18.57"/>
-    <col customWidth="1" min="35" max="35" width="17.0"/>
-    <col customWidth="1" min="36" max="36" width="17.43"/>
-    <col customWidth="1" min="37" max="37" width="21.14"/>
-    <col customWidth="1" min="38" max="38" width="20.29"/>
-    <col customWidth="1" min="39" max="39" width="19.14"/>
-    <col customWidth="1" min="40" max="40" width="19.86"/>
-    <col customWidth="1" min="41" max="41" width="15.43"/>
-    <col customWidth="1" min="42" max="42" width="20.43"/>
-    <col customWidth="1" min="43" max="43" width="18.14"/>
-    <col customWidth="1" min="44" max="44" width="18.57"/>
-    <col customWidth="1" min="45" max="45" width="19.57"/>
-    <col customWidth="1" min="46" max="46" width="18.71"/>
+    <col min="1" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" customWidth="1"/>
+    <col min="29" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="37" max="37" width="21.140625" customWidth="1"/>
+    <col min="38" max="38" width="20.28515625" customWidth="1"/>
+    <col min="39" max="39" width="19.140625" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" customWidth="1"/>
+    <col min="45" max="45" width="19.5703125" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:49" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1290,9 +2340,9 @@
       <c r="AV1" s="5"/>
       <c r="AW1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:49" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1427,9 +2477,9 @@
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:49" ht="15.75" customHeight="1">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1566,9 +2616,9 @@
       <c r="AV3" s="5"/>
       <c r="AW3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:49" ht="15.75" customHeight="1">
       <c r="A4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1703,9 +2753,9 @@
       <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:49" ht="15.75" customHeight="1">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1840,9 +2890,9 @@
       <c r="AV5" s="5"/>
       <c r="AW5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:49" ht="15.75" customHeight="1">
       <c r="A6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="17" t="s">
@@ -1981,9 +3031,9 @@
       <c r="AV6" s="5"/>
       <c r="AW6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:49" ht="15.75" customHeight="1">
       <c r="A7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2118,9 +3168,9 @@
       <c r="AV7" s="5"/>
       <c r="AW7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:49" ht="15.75" customHeight="1">
       <c r="A8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -2257,9 +3307,9 @@
       <c r="AV8" s="5"/>
       <c r="AW8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:49" ht="15.75" customHeight="1">
       <c r="A9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2396,9 +3446,9 @@
       <c r="AV9" s="5"/>
       <c r="AW9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:49" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -2535,9 +3585,9 @@
       <c r="AV10" s="5"/>
       <c r="AW10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:49" ht="15.75" customHeight="1">
       <c r="A11" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2674,9 +3724,9 @@
       <c r="AV11" s="5"/>
       <c r="AW11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:49" ht="15.75" customHeight="1">
       <c r="A12" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -2811,9 +3861,9 @@
       <c r="AV12" s="5"/>
       <c r="AW12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:49" ht="15.75" customHeight="1">
       <c r="A13" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -2948,9 +3998,9 @@
       <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:49" ht="15.75" customHeight="1">
       <c r="A14" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3085,9 +4135,9 @@
       <c r="AV14" s="5"/>
       <c r="AW14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:49" ht="15.75" customHeight="1">
       <c r="A15" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3222,9 +4272,9 @@
       <c r="AV15" s="5"/>
       <c r="AW15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:49" ht="15.75" customHeight="1">
       <c r="A16" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3359,9 +4409,9 @@
       <c r="AV16" s="5"/>
       <c r="AW16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:49" ht="15.75" customHeight="1">
       <c r="A17" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3498,9 +4548,9 @@
       <c r="AV17" s="5"/>
       <c r="AW17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:49" ht="15.75" customHeight="1">
       <c r="A18" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3635,9 +4685,9 @@
       <c r="AV18" s="5"/>
       <c r="AW18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:49" ht="15.75" customHeight="1">
       <c r="A19" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3774,9 +4824,9 @@
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:49" ht="15.75" customHeight="1">
       <c r="A20" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3911,9 +4961,9 @@
       <c r="AV20" s="5"/>
       <c r="AW20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:49" ht="15.75" customHeight="1">
       <c r="A21" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -4050,9 +5100,9 @@
       <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:49" ht="15.75" customHeight="1">
       <c r="A22" s="6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -4187,9 +5237,9 @@
       <c r="AV22" s="5"/>
       <c r="AW22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:49" ht="15.75" customHeight="1">
       <c r="A23" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4326,9 +5376,9 @@
       <c r="AV23" s="5"/>
       <c r="AW23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:49" ht="15.75" customHeight="1">
       <c r="A24" s="6">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4463,9 +5513,9 @@
       <c r="AV24" s="5"/>
       <c r="AW24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:49" ht="15.75" customHeight="1">
       <c r="A25" s="6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4600,9 +5650,9 @@
       <c r="AV25" s="5"/>
       <c r="AW25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:49" ht="15.75" customHeight="1">
       <c r="A26" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4739,9 +5789,9 @@
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:49" ht="15.75" customHeight="1">
       <c r="A27" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -4876,9 +5926,9 @@
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:49" ht="15.75" customHeight="1">
       <c r="A28" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -5013,9 +6063,9 @@
       <c r="AV28" s="5"/>
       <c r="AW28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:49" ht="15.75" customHeight="1">
       <c r="A29" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -5150,9 +6200,9 @@
       <c r="AV29" s="5"/>
       <c r="AW29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:49" ht="15.75" customHeight="1">
       <c r="A30" s="6">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -5287,9 +6337,9 @@
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:49" ht="15.75" customHeight="1">
       <c r="A31" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -5424,9 +6474,9 @@
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:49" ht="15.75" customHeight="1">
       <c r="A32" s="6">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -5563,9 +6613,9 @@
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:49" ht="15.75" customHeight="1">
       <c r="A33" s="6">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -5702,9 +6752,9 @@
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:49" ht="15.75" customHeight="1">
       <c r="A34" s="6">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -5841,9 +6891,9 @@
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:49" ht="15.75" customHeight="1">
       <c r="A35" s="6">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -5978,9 +7028,9 @@
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:49" ht="15.75" customHeight="1">
       <c r="A36" s="6">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -6115,9 +7165,9 @@
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:49" ht="15.75" customHeight="1">
       <c r="A37" s="6">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -6252,9 +7302,9 @@
       <c r="AV37" s="5"/>
       <c r="AW37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:49" ht="12.75">
       <c r="A38" s="6">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="17" t="s">
@@ -6360,10 +7410,10 @@
         <v>48</v>
       </c>
       <c r="AK38" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL38" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM38" s="13" t="s">
         <v>46</v>
@@ -6393,9 +7443,9 @@
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:49" ht="12.75">
       <c r="A39" s="6">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -6530,9 +7580,9 @@
       <c r="AV39" s="5"/>
       <c r="AW39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:49" ht="12.75">
       <c r="A40" s="6">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -6667,9 +7717,9 @@
       <c r="AV40" s="5"/>
       <c r="AW40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:49" ht="12.75">
       <c r="A41" s="6">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -6806,9 +7856,9 @@
       <c r="AV41" s="5"/>
       <c r="AW41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:49" ht="12.75">
       <c r="A42" s="6">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -6943,7 +7993,7 @@
       <c r="AV42" s="5"/>
       <c r="AW42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:49" ht="25.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -6952,184 +8002,184 @@
         <v>48</v>
       </c>
       <c r="F43" s="33">
-        <f>countif(F$2:F$42, "detected")</f>
+        <f>COUNTIF(F$2:F$42, "detected")</f>
         <v>0</v>
       </c>
       <c r="G43" s="34">
-        <f t="shared" ref="G43:AT43" si="1">countif(G2:G42, "detected")</f>
+        <f t="shared" ref="G43:AT43" si="0">COUNTIF(G2:G42, "detected")</f>
         <v>15</v>
       </c>
       <c r="H43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="M43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="O43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="V43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="X43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="Z43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AB43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AF43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AG43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AH43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AI43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AJ43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AK43" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AL43" s="34">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="AL43" s="34">
-        <f t="shared" si="1"/>
+      <c r="AM43" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN43" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO43" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="34">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AM43" s="34">
-        <f t="shared" si="1"/>
+      <c r="AQ43" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN43" s="34">
-        <f t="shared" si="1"/>
+      <c r="AR43" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO43" s="34">
-        <f t="shared" si="1"/>
+      <c r="AS43" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP43" s="34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AQ43" s="34">
-        <f t="shared" si="1"/>
+      <c r="AT43" s="34">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR43" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS43" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT43" s="34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="AU43" s="35">
-        <f t="shared" ref="AU43:AU47" si="3">sum(F43:AT43)</f>
-        <v>112</v>
+        <f t="shared" ref="AU43:AU47" si="1">SUM(F43:AT43)</f>
+        <v>114</v>
       </c>
       <c r="AV43" s="36" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AW43" s="37"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:49" ht="12.75">
       <c r="A44" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="39">
-        <f>combin(A42,2)</f>
+        <f>COMBIN(A42,2)</f>
         <v>820</v>
       </c>
       <c r="C44" s="2"/>
@@ -7138,7 +8188,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="33">
-        <f t="shared" ref="F44:AT44" si="2">countif(F$2:F$42, "no error")</f>
+        <f t="shared" ref="F44:AT44" si="2">COUNTIF(F$2:F$42, "no error")</f>
         <v>3</v>
       </c>
       <c r="G44" s="33">
@@ -7302,362 +8352,362 @@
         <v>0</v>
       </c>
       <c r="AU44" s="42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>277</v>
       </c>
       <c r="AV44" s="37"/>
       <c r="AW44" s="37"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:49" ht="12.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" ref="F45:AT45" si="4">COUNTIF(F$2:F$42, "oom")</f>
+        <f t="shared" ref="F45:AT45" si="3">COUNTIF(F$2:F$42, "oom")</f>
         <v>0</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AK45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AL45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AM45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AN45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AO45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AP45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AQ45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AS45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AT45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AU45" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AV45" s="37"/>
       <c r="AW45" s="37"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:49" ht="12.75">
       <c r="A46" s="2"/>
       <c r="E46" s="43" t="s">
         <v>46</v>
       </c>
       <c r="F46" s="33">
-        <f t="shared" ref="F46:AT46" si="5">COUNTIF(F$2:F$42, "timeout")</f>
+        <f t="shared" ref="F46:AT46" si="4">COUNTIF(F$2:F$42, "timeout")</f>
         <v>37</v>
       </c>
       <c r="G46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="H46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="I46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="J46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="K46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="M46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="N46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="O46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="P46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="Q46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="R46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="S46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="T46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="U46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="V46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="W46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="X46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="Y46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="Z46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AA46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="AB46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="AC46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="AD46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="AE46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="AF46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="AG46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AH46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="AI46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="AJ46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AK46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AL46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AM46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="AN46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AO46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AQ46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT46" s="33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU46" s="44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>423</v>
       </c>
       <c r="AV46" s="45">
@@ -7666,183 +8716,183 @@
       </c>
       <c r="AW46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:49" ht="25.5">
       <c r="A47" s="2"/>
       <c r="E47" s="23" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="33">
-        <f t="shared" ref="F47:AT47" si="6">COUNTIF(F$2:F$42, "detected - user-user")</f>
+        <f t="shared" ref="F47:AT47" si="5">COUNTIF(F$2:F$42, "detected - user-user")</f>
         <v>0</v>
       </c>
       <c r="G47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="K47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK47" s="33">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AL47" s="33">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="AM47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AT47" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AU47" s="46">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="AV47" s="5"/>
       <c r="AW47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:49" ht="12.75">
       <c r="A48" s="2"/>
       <c r="F48" s="38"/>
       <c r="H48" s="5"/>
@@ -7884,33 +8934,33 @@
       <c r="AR48" s="2"/>
       <c r="AS48" s="2"/>
       <c r="AT48" s="48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AU48" s="49">
         <f>AU44+AU47</f>
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AV48" s="5"/>
       <c r="AW48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:12" ht="12.75">
       <c r="I49" s="5"/>
       <c r="J49" s="47"/>
       <c r="K49" s="15"/>
       <c r="L49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:12" ht="12.75">
       <c r="C50" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:12" ht="12.75">
       <c r="C51" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D51" s="51" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeChangeMode.groovy","ecobeeChangeMode.groovy")</f>
@@ -7921,9 +8971,9 @@
       <c r="K51" s="5"/>
       <c r="L51" s="15"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:12" ht="12.75">
       <c r="C52" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeGenerateWeeklyStats.groovy","ecobeeGenerateWeeklyStats.groovy")</f>
@@ -7934,10 +8984,10 @@
       <c r="K52" s="5"/>
       <c r="L52" s="15"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:12" ht="12.75">
       <c r="A53" s="54"/>
       <c r="C53" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeManageClimate.groovy","ecobeeManageClimate.groovy")</f>
@@ -7947,10 +8997,10 @@
       <c r="J53" s="55"/>
       <c r="K53" s="56"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:12" ht="12.75">
       <c r="A54" s="54"/>
       <c r="C54" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeResumeProg.groovy","ecobeeResumeProg.groovy")</f>
@@ -7960,10 +9010,10 @@
       <c r="J54" s="55"/>
       <c r="K54" s="56"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:12" ht="12.75">
       <c r="A55" s="54"/>
       <c r="C55" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/MonitorAndSetEcobeeHumidity.groovy","MonitorAndSetEcobeeHumidity.groovy")</f>
@@ -7973,125 +9023,126 @@
       <c r="J55" s="57"/>
       <c r="K55" s="56"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:12" ht="12.75">
       <c r="C56" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K56" s="56"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:12" ht="12.75">
       <c r="C57" s="58" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/talking-alarm-clock.groovy","talking-alarm-clock.groovy")</f>
         <v>talking-alarm-clock.groovy</v>
       </c>
       <c r="K57" s="56"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:12" ht="12.75">
       <c r="I58" s="59"/>
       <c r="J58" s="59"/>
       <c r="K58" s="56"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:12" ht="12.75">
       <c r="I59" s="55"/>
       <c r="J59" s="55"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:12" ht="12.75">
       <c r="I60" s="55"/>
       <c r="J60" s="55"/>
       <c r="K60" s="56"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:12" ht="12.75">
       <c r="I61" s="55"/>
       <c r="J61" s="55"/>
       <c r="K61" s="56"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:12" ht="12.75">
       <c r="I62" s="55"/>
       <c r="J62" s="55"/>
       <c r="K62" s="56"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:12" ht="12.75">
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
       <c r="K63" s="56"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:12" ht="12.75">
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
       <c r="K64" s="60"/>
     </row>
-    <row r="65">
+    <row r="65" spans="9:10" ht="12.75">
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5.0" ySplit="1.0" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F1" sqref="F1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2" pane="bottomRight"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="4.86"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="4" width="33.0"/>
-    <col customWidth="1" min="5" max="5" width="12.14"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
-    <col customWidth="1" min="7" max="7" width="18.0"/>
-    <col customWidth="1" min="8" max="8" width="15.86"/>
-    <col customWidth="1" min="9" max="9" width="20.43"/>
-    <col customWidth="1" min="10" max="10" width="23.29"/>
-    <col customWidth="1" min="11" max="11" width="16.14"/>
-    <col customWidth="1" min="12" max="12" width="18.29"/>
-    <col customWidth="1" min="13" max="13" width="16.14"/>
-    <col customWidth="1" min="14" max="14" width="19.57"/>
-    <col customWidth="1" min="15" max="15" width="14.71"/>
-    <col customWidth="1" min="16" max="16" width="16.86"/>
-    <col customWidth="1" min="17" max="17" width="14.57"/>
-    <col customWidth="1" min="18" max="18" width="14.29"/>
-    <col customWidth="1" min="19" max="19" width="15.57"/>
-    <col customWidth="1" min="20" max="20" width="15.0"/>
-    <col customWidth="1" min="21" max="21" width="13.71"/>
-    <col customWidth="1" min="22" max="22" width="14.14"/>
-    <col customWidth="1" min="23" max="23" width="13.43"/>
-    <col customWidth="1" min="24" max="24" width="15.57"/>
-    <col customWidth="1" min="25" max="25" width="14.29"/>
-    <col customWidth="1" min="26" max="26" width="18.14"/>
-    <col customWidth="1" min="27" max="27" width="20.14"/>
-    <col customWidth="1" min="28" max="28" width="18.29"/>
-    <col customWidth="1" min="29" max="30" width="17.71"/>
-    <col customWidth="1" min="31" max="31" width="16.0"/>
-    <col customWidth="1" min="32" max="32" width="15.14"/>
-    <col customWidth="1" min="33" max="33" width="18.86"/>
-    <col customWidth="1" min="34" max="34" width="18.57"/>
-    <col customWidth="1" min="35" max="35" width="17.0"/>
-    <col customWidth="1" min="36" max="36" width="17.43"/>
-    <col customWidth="1" min="37" max="37" width="21.14"/>
-    <col customWidth="1" min="38" max="38" width="20.29"/>
-    <col customWidth="1" min="39" max="39" width="19.14"/>
-    <col customWidth="1" min="40" max="40" width="19.86"/>
-    <col customWidth="1" min="41" max="41" width="15.43"/>
-    <col customWidth="1" min="42" max="42" width="20.43"/>
-    <col customWidth="1" min="43" max="43" width="18.14"/>
-    <col customWidth="1" min="44" max="44" width="18.57"/>
-    <col customWidth="1" min="45" max="45" width="19.57"/>
-    <col customWidth="1" min="46" max="46" width="18.71"/>
+    <col min="1" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.5703125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" customWidth="1"/>
+    <col min="29" max="30" width="17.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
+    <col min="33" max="33" width="18.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" customWidth="1"/>
+    <col min="35" max="35" width="17" customWidth="1"/>
+    <col min="36" max="36" width="17.42578125" customWidth="1"/>
+    <col min="37" max="37" width="21.140625" customWidth="1"/>
+    <col min="38" max="38" width="20.28515625" customWidth="1"/>
+    <col min="39" max="39" width="19.140625" customWidth="1"/>
+    <col min="40" max="40" width="19.85546875" customWidth="1"/>
+    <col min="41" max="41" width="15.42578125" customWidth="1"/>
+    <col min="42" max="42" width="20.42578125" customWidth="1"/>
+    <col min="43" max="43" width="18.140625" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" customWidth="1"/>
+    <col min="45" max="45" width="19.5703125" customWidth="1"/>
+    <col min="46" max="46" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:48" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8229,9 +9280,9 @@
       <c r="AU1" s="5"/>
       <c r="AV1" s="5"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:48" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -8365,9 +9416,9 @@
       <c r="AU2" s="11"/>
       <c r="AV2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:48" ht="15.75" customHeight="1">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -8501,9 +9552,9 @@
       <c r="AU3" s="15"/>
       <c r="AV3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:48" ht="15.75" customHeight="1">
       <c r="A4" s="6">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -8633,9 +9684,9 @@
       <c r="AU4" s="15"/>
       <c r="AV4" s="5"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:48" ht="15.75" customHeight="1">
       <c r="A5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -8763,9 +9814,9 @@
       <c r="AU5" s="11"/>
       <c r="AV5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:48" ht="15.75" customHeight="1">
       <c r="A6" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="17" t="s">
@@ -8779,7 +9830,7 @@
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="24">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -8897,9 +9948,9 @@
       <c r="AU6" s="15"/>
       <c r="AV6" s="5"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:48" ht="15.75" customHeight="1">
       <c r="A7" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -8909,12 +9960,12 @@
       <c r="E7" s="9"/>
       <c r="F7" s="21"/>
       <c r="G7" s="26">
-        <v>7.175925925925926E-4</v>
+        <v>7.1759259259259259E-4</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
       <c r="J7" s="26">
-        <v>0.00863425925925926</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>44</v>
@@ -9027,9 +10078,9 @@
       <c r="AU7" s="15"/>
       <c r="AV7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:48" ht="15.75" customHeight="1">
       <c r="A8" s="6">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -9041,15 +10092,15 @@
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="24">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="24">
-        <v>4.976851851851852E-4</v>
+        <v>4.9768518518518521E-4</v>
       </c>
       <c r="K8" s="26">
-        <v>0.008969907407407407</v>
+        <v>8.9699074074074073E-3</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>44</v>
@@ -9159,9 +10210,9 @@
       <c r="AU8" s="11"/>
       <c r="AV8" s="5"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:48" ht="15.75" customHeight="1">
       <c r="A9" s="6">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -9173,15 +10224,15 @@
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="24">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="24">
-        <v>5.439814814814814E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="K9" s="26">
-        <v>0.0030439814814814813</v>
+        <v>3.0439814814814813E-3</v>
       </c>
       <c r="L9" s="24">
         <v>3.7037037037037035E-4</v>
@@ -9291,9 +10342,9 @@
       <c r="AU9" s="15"/>
       <c r="AV9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:48" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -9305,7 +10356,7 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="24">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
@@ -9313,13 +10364,13 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="K10" s="26">
-        <v>7.060185185185185E-4</v>
+        <v>7.0601851851851847E-4</v>
       </c>
       <c r="L10" s="24">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="M10" s="24">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>44</v>
@@ -9423,9 +10474,9 @@
       <c r="AU10" s="15"/>
       <c r="AV10" s="5"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:48" ht="15.75" customHeight="1">
       <c r="A11" s="6">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -9436,18 +10487,18 @@
         <v>45</v>
       </c>
       <c r="F11" s="26">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="G11" s="24">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="24">
-        <v>5.439814814814814E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="K11" s="26">
-        <v>0.0010300925925925926</v>
+        <v>1.0300925925925926E-3</v>
       </c>
       <c r="L11" s="24">
         <v>3.4722222222222224E-4</v>
@@ -9456,7 +10507,7 @@
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="N11" s="24">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>44</v>
@@ -9557,9 +10608,9 @@
       <c r="AU11" s="11"/>
       <c r="AV11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:48" ht="15.75" customHeight="1">
       <c r="A12" s="6">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -9569,27 +10620,27 @@
       <c r="E12" s="25"/>
       <c r="F12" s="21"/>
       <c r="G12" s="26">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="26">
-        <v>0.0038541666666666668</v>
+        <v>3.8541666666666668E-3</v>
       </c>
       <c r="K12" s="26">
-        <v>0.001574074074074074</v>
+        <v>1.5740740740740741E-3</v>
       </c>
       <c r="L12" s="26">
-        <v>0.003171296296296296</v>
+        <v>3.1712962962962962E-3</v>
       </c>
       <c r="M12" s="26">
-        <v>0.0029745370370370373</v>
+        <v>2.9745370370370373E-3</v>
       </c>
       <c r="N12" s="26">
-        <v>5.324074074074074E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="O12" s="26">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>44</v>
@@ -9687,9 +10738,9 @@
       <c r="AU12" s="15"/>
       <c r="AV12" s="5"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:48" ht="15.75" customHeight="1">
       <c r="A13" s="6">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -9801,9 +10852,9 @@
       <c r="AU13" s="15"/>
       <c r="AV13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:48" ht="15.75" customHeight="1">
       <c r="A14" s="6">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -9813,26 +10864,26 @@
       <c r="E14" s="9"/>
       <c r="F14" s="21"/>
       <c r="G14" s="26">
-        <v>0.007291666666666667</v>
+        <v>7.2916666666666668E-3</v>
       </c>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="26">
-        <v>0.010150462962962964</v>
+        <v>1.0150462962962964E-2</v>
       </c>
       <c r="M14" s="26">
-        <v>0.013391203703703704</v>
+        <v>1.3391203703703704E-2</v>
       </c>
       <c r="N14" s="26">
-        <v>0.0025810185185185185</v>
+        <v>2.5810185185185185E-3</v>
       </c>
       <c r="O14" s="26">
-        <v>0.008391203703703705</v>
+        <v>8.3912037037037045E-3</v>
       </c>
       <c r="P14" s="26">
-        <v>0.009270833333333334</v>
+        <v>9.2708333333333341E-3</v>
       </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="14" t="s">
@@ -9925,9 +10976,9 @@
       <c r="AU14" s="11"/>
       <c r="AV14" s="5"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:48" ht="15.75" customHeight="1">
       <c r="A15" s="6">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -9937,21 +10988,21 @@
       <c r="E15" s="9"/>
       <c r="F15" s="21"/>
       <c r="G15" s="26">
-        <v>0.01306712962962963</v>
+        <v>1.306712962962963E-2</v>
       </c>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="26">
-        <v>0.009189814814814816</v>
+        <v>9.1898148148148156E-3</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="26">
-        <v>0.009016203703703703</v>
+        <v>9.0162037037037034E-3</v>
       </c>
       <c r="O15" s="26">
-        <v>0.0153125</v>
+        <v>1.53125E-2</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
@@ -10043,9 +11094,9 @@
       <c r="AU15" s="15"/>
       <c r="AV15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:48" ht="15.75" customHeight="1">
       <c r="A16" s="6">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -10055,34 +11106,34 @@
       <c r="E16" s="9"/>
       <c r="F16" s="21"/>
       <c r="G16" s="26">
-        <v>7.638888888888889E-4</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="26">
-        <v>0.006828703703703704</v>
+        <v>6.828703703703704E-3</v>
       </c>
       <c r="K16" s="26">
-        <v>0.002372685185185185</v>
+        <v>2.3726851851851851E-3</v>
       </c>
       <c r="L16" s="26">
         <v>9.837962962962962E-4</v>
       </c>
       <c r="M16" s="26">
-        <v>0.0016203703703703703</v>
+        <v>1.6203703703703703E-3</v>
       </c>
       <c r="N16" s="28">
         <v>4.5138888888888887E-4</v>
       </c>
       <c r="O16" s="26">
-        <v>8.217592592592593E-4</v>
+        <v>8.2175925925925927E-4</v>
       </c>
       <c r="P16" s="26">
-        <v>0.0010532407407407407</v>
+        <v>1.0532407407407407E-3</v>
       </c>
       <c r="Q16" s="21"/>
       <c r="R16" s="26">
-        <v>0.003738425925925926</v>
+        <v>3.7384259259259259E-3</v>
       </c>
       <c r="S16" s="21"/>
       <c r="T16" s="14" t="s">
@@ -10169,9 +11220,9 @@
       <c r="AU16" s="15"/>
       <c r="AV16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:48" ht="15.75" customHeight="1">
       <c r="A17" s="6">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -10183,7 +11234,7 @@
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="24">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -10191,28 +11242,28 @@
         <v>4.5138888888888887E-4</v>
       </c>
       <c r="K17" s="26">
-        <v>0.0034953703703703705</v>
+        <v>3.4953703703703705E-3</v>
       </c>
       <c r="L17" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="M17" s="24">
-        <v>6.365740740740741E-4</v>
+        <v>6.3657407407407413E-4</v>
       </c>
       <c r="N17" s="24">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="O17" s="24">
-        <v>4.398148148148148E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="P17" s="26">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="Q17" s="21"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="26">
-        <v>0.0027314814814814814</v>
+        <v>2.7314814814814814E-3</v>
       </c>
       <c r="U17" s="14" t="s">
         <v>44</v>
@@ -10295,9 +11346,9 @@
       <c r="AU17" s="11"/>
       <c r="AV17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:48" ht="15.75" customHeight="1">
       <c r="A18" s="6">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -10399,9 +11450,9 @@
       <c r="AU18" s="15"/>
       <c r="AV18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:48" ht="15.75" customHeight="1">
       <c r="A19" s="6">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -10418,36 +11469,36 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="24">
-        <v>5.555555555555556E-4</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="K19" s="26">
-        <v>0.0016203703703703703</v>
+        <v>1.6203703703703703E-3</v>
       </c>
       <c r="L19" s="24">
-        <v>3.125E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="M19" s="24">
-        <v>4.398148148148148E-4</v>
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="N19" s="24">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="O19" s="24">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="P19" s="26">
-        <v>0.0018055555555555555</v>
+        <v>1.8055555555555555E-3</v>
       </c>
       <c r="Q19" s="21"/>
       <c r="R19" s="26">
-        <v>0.007604166666666667</v>
+        <v>7.6041666666666671E-3</v>
       </c>
       <c r="S19" s="21"/>
       <c r="T19" s="26">
-        <v>0.0010763888888888889</v>
+        <v>1.0763888888888889E-3</v>
       </c>
       <c r="U19" s="24">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="V19" s="21"/>
       <c r="W19" s="14" t="s">
@@ -10525,9 +11576,9 @@
       <c r="AU19" s="15"/>
       <c r="AV19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:48" ht="15.75" customHeight="1">
       <c r="A20" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -10542,40 +11593,40 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="26">
-        <v>0.00375</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="K20" s="26">
-        <v>0.0015277777777777779</v>
+        <v>1.5277777777777779E-3</v>
       </c>
       <c r="L20" s="26">
-        <v>0.003611111111111111</v>
+        <v>3.6111111111111109E-3</v>
       </c>
       <c r="M20" s="26">
-        <v>0.0030671296296296297</v>
+        <v>3.0671296296296297E-3</v>
       </c>
       <c r="N20" s="26">
-        <v>5.439814814814814E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="O20" s="26">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="P20" s="26">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="Q20" s="21"/>
       <c r="R20" s="26">
-        <v>0.00982638888888889</v>
+        <v>9.8263888888888897E-3</v>
       </c>
       <c r="S20" s="21"/>
       <c r="T20" s="26">
-        <v>0.0011226851851851851</v>
+        <v>1.1226851851851851E-3</v>
       </c>
       <c r="U20" s="26">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="V20" s="21"/>
       <c r="W20" s="26">
-        <v>0.001585648148148148</v>
+        <v>1.5856481481481481E-3</v>
       </c>
       <c r="X20" s="14" t="s">
         <v>44</v>
@@ -10649,9 +11700,9 @@
       <c r="AU20" s="11"/>
       <c r="AV20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:48" ht="15.75" customHeight="1">
       <c r="A21" s="6">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -10668,42 +11719,42 @@
       <c r="H21" s="21"/>
       <c r="I21" s="21"/>
       <c r="J21" s="24">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="K21" s="26">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="L21" s="24">
         <v>1.8518518518518518E-4</v>
       </c>
       <c r="M21" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="N21" s="24">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="O21" s="24">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="P21" s="26">
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="Q21" s="21"/>
       <c r="R21" s="26">
-        <v>0.0017708333333333332</v>
+        <v>1.7708333333333332E-3</v>
       </c>
       <c r="S21" s="26">
-        <v>0.004629629629629629</v>
+        <v>4.6296296296296294E-3</v>
       </c>
       <c r="T21" s="26">
-        <v>5.324074074074074E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="U21" s="24">
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="V21" s="21"/>
       <c r="W21" s="24">
-        <v>3.125E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="X21" s="26">
         <v>3.8194444444444446E-4</v>
@@ -10777,9 +11828,9 @@
       <c r="AU21" s="15"/>
       <c r="AV21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:48" ht="15.75" customHeight="1">
       <c r="A22" s="6">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="9"/>
@@ -10873,9 +11924,9 @@
       <c r="AU22" s="15"/>
       <c r="AV22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:48" ht="15.75" customHeight="1">
       <c r="A23" s="6">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -10887,47 +11938,47 @@
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="24">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="27"/>
       <c r="K23" s="26">
-        <v>0.005358796296296296</v>
+        <v>5.3587962962962964E-3</v>
       </c>
       <c r="L23" s="24">
-        <v>6.481481481481481E-4</v>
+        <v>6.4814814814814813E-4</v>
       </c>
       <c r="M23" s="24">
-        <v>9.375E-4</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="N23" s="27">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="O23" s="24">
-        <v>0.0010069444444444444</v>
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="P23" s="26">
-        <v>0.0035300925925925925</v>
+        <v>3.5300925925925925E-3</v>
       </c>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="26">
-        <v>0.005868055555555555</v>
+        <v>5.8680555555555552E-3</v>
       </c>
       <c r="U23" s="24">
-        <v>9.953703703703704E-4</v>
+        <v>9.9537037037037042E-4</v>
       </c>
       <c r="V23" s="21"/>
       <c r="W23" s="24">
-        <v>6.597222222222222E-4</v>
+        <v>6.5972222222222224E-4</v>
       </c>
       <c r="X23" s="26">
-        <v>0.0033564814814814816</v>
+        <v>3.3564814814814816E-3</v>
       </c>
       <c r="Y23" s="24">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="Z23" s="21"/>
       <c r="AA23" s="14" t="s">
@@ -10993,9 +12044,9 @@
       <c r="AU23" s="11"/>
       <c r="AV23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:48" ht="15.75" customHeight="1">
       <c r="A24" s="6">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -11085,9 +12136,9 @@
       <c r="AU24" s="15"/>
       <c r="AV24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:48" ht="15.75" customHeight="1">
       <c r="A25" s="6">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -11097,53 +12148,53 @@
       <c r="E25" s="9"/>
       <c r="F25" s="21"/>
       <c r="G25" s="26">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="26">
-        <v>0.002939814814814815</v>
+        <v>2.9398148148148148E-3</v>
       </c>
       <c r="K25" s="26">
-        <v>0.0010185185185185184</v>
+        <v>1.0185185185185184E-3</v>
       </c>
       <c r="L25" s="26">
-        <v>8.912037037037037E-4</v>
+        <v>8.9120370370370373E-4</v>
       </c>
       <c r="M25" s="21"/>
       <c r="N25" s="26">
-        <v>5.092592592592592E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="O25" s="26">
-        <v>5.439814814814814E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="P25" s="26">
-        <v>6.828703703703704E-4</v>
+        <v>6.8287037037037036E-4</v>
       </c>
       <c r="Q25" s="21"/>
       <c r="R25" s="26">
-        <v>0.002013888888888889</v>
+        <v>2.0138888888888888E-3</v>
       </c>
       <c r="S25" s="21"/>
       <c r="T25" s="26">
-        <v>5.324074074074074E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="U25" s="26">
-        <v>8.912037037037037E-4</v>
+        <v>8.9120370370370373E-4</v>
       </c>
       <c r="V25" s="21"/>
       <c r="W25" s="26">
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="X25" s="26">
-        <v>6.944444444444445E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="Y25" s="26">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="Z25" s="21"/>
       <c r="AA25" s="26">
-        <v>0.002916666666666667</v>
+        <v>2.9166666666666668E-3</v>
       </c>
       <c r="AB25" s="21"/>
       <c r="AC25" s="14" t="s">
@@ -11203,9 +12254,9 @@
       <c r="AU25" s="15"/>
       <c r="AV25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:48" ht="15.75" customHeight="1">
       <c r="A26" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -11217,27 +12268,27 @@
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="24">
-        <v>7.523148148148148E-4</v>
+        <v>7.5231481481481482E-4</v>
       </c>
       <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="24">
-        <v>7.986111111111112E-4</v>
+        <v>7.9861111111111116E-4</v>
       </c>
       <c r="K26" s="26">
-        <v>0.013622685185185186</v>
+        <v>1.3622685185185186E-2</v>
       </c>
       <c r="L26" s="24">
-        <v>4.166666666666667E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="M26" s="24">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="N26" s="24">
-        <v>5.324074074074074E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="O26" s="24">
-        <v>9.606481481481482E-4</v>
+        <v>9.6064814814814819E-4</v>
       </c>
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
@@ -11249,15 +12300,15 @@
       </c>
       <c r="V26" s="21"/>
       <c r="W26" s="24">
-        <v>6.481481481481481E-4</v>
+        <v>6.4814814814814813E-4</v>
       </c>
       <c r="X26" s="21"/>
       <c r="Y26" s="24">
-        <v>5.092592592592592E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="Z26" s="21"/>
       <c r="AA26" s="24">
-        <v>0.0010185185185185184</v>
+        <v>1.0185185185185184E-3</v>
       </c>
       <c r="AB26" s="21"/>
       <c r="AC26" s="32"/>
@@ -11315,9 +12366,9 @@
       <c r="AU26" s="11"/>
       <c r="AV26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:48" ht="15.75" customHeight="1">
       <c r="A27" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -11327,59 +12378,59 @@
       <c r="E27" s="9"/>
       <c r="F27" s="21"/>
       <c r="G27" s="26">
-        <v>5.439814814814814E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="H27" s="21"/>
       <c r="I27" s="41">
-        <v>0.020590277777777777</v>
+        <v>2.0590277777777777E-2</v>
       </c>
       <c r="J27" s="26">
-        <v>0.0023032407407407407</v>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="K27" s="26">
-        <v>0.001099537037037037</v>
+        <v>1.0995370370370371E-3</v>
       </c>
       <c r="L27" s="26">
         <v>8.564814814814815E-4</v>
       </c>
       <c r="M27" s="26">
-        <v>7.87037037037037E-4</v>
+        <v>7.8703703703703705E-4</v>
       </c>
       <c r="N27" s="26">
-        <v>5.787037037037037E-4</v>
+        <v>5.7870370370370367E-4</v>
       </c>
       <c r="O27" s="26">
-        <v>5.324074074074074E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="P27" s="26">
-        <v>6.944444444444445E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="Q27" s="21"/>
       <c r="R27" s="26">
-        <v>0.0020486111111111113</v>
+        <v>2.0486111111111113E-3</v>
       </c>
       <c r="S27" s="21"/>
       <c r="T27" s="26">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="U27" s="26">
-        <v>0.0010879629629629629</v>
+        <v>1.0879629629629629E-3</v>
       </c>
       <c r="V27" s="21"/>
       <c r="W27" s="26">
-        <v>5.555555555555556E-4</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="X27" s="26">
-        <v>6.365740740740741E-4</v>
+        <v>6.3657407407407413E-4</v>
       </c>
       <c r="Y27" s="26">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="Z27" s="26">
-        <v>0.014791666666666667</v>
+        <v>1.4791666666666667E-2</v>
       </c>
       <c r="AA27" s="26">
-        <v>0.0022222222222222222</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="AB27" s="21"/>
       <c r="AC27" s="26"/>
@@ -11435,9 +12486,9 @@
       <c r="AU27" s="15"/>
       <c r="AV27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:48" ht="15.75" customHeight="1">
       <c r="A28" s="6">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -11519,9 +12570,9 @@
       <c r="AU28" s="15"/>
       <c r="AV28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:48" ht="15.75" customHeight="1">
       <c r="A29" s="6">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -11601,9 +12652,9 @@
       <c r="AU29" s="11"/>
       <c r="AV29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:48" ht="15.75" customHeight="1">
       <c r="A30" s="6">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -11681,9 +12732,9 @@
       <c r="AU30" s="15"/>
       <c r="AV30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:48" ht="15.75" customHeight="1">
       <c r="A31" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -11759,9 +12810,9 @@
       <c r="AU31" s="15"/>
       <c r="AV31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:48" ht="15.75" customHeight="1">
       <c r="A32" s="6">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -11773,15 +12824,15 @@
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="24">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="24">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="K32" s="26">
-        <v>9.953703703703704E-4</v>
+        <v>9.9537037037037042E-4</v>
       </c>
       <c r="L32" s="24">
         <v>3.0092592592592595E-4</v>
@@ -11790,23 +12841,23 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="N32" s="24">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="O32" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="P32" s="26">
-        <v>7.523148148148148E-4</v>
+        <v>7.5231481481481482E-4</v>
       </c>
       <c r="Q32" s="21"/>
       <c r="R32" s="26">
-        <v>0.007013888888888889</v>
+        <v>7.013888888888889E-3</v>
       </c>
       <c r="S32" s="26">
-        <v>0.018125</v>
+        <v>1.8124999999999999E-2</v>
       </c>
       <c r="T32" s="26">
-        <v>9.953703703703704E-4</v>
+        <v>9.9537037037037042E-4</v>
       </c>
       <c r="U32" s="24">
         <v>4.7453703703703704E-4</v>
@@ -11816,24 +12867,24 @@
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="X32" s="26">
-        <v>7.87037037037037E-4</v>
+        <v>7.8703703703703705E-4</v>
       </c>
       <c r="Y32" s="24">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="Z32" s="21"/>
       <c r="AA32" s="24">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="AB32" s="21"/>
       <c r="AC32" s="26">
-        <v>5.555555555555556E-4</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="AD32" s="24">
         <v>8.564814814814815E-4</v>
       </c>
       <c r="AE32" s="26">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32"/>
@@ -11875,9 +12926,9 @@
       <c r="AU32" s="11"/>
       <c r="AV32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:48" ht="15.75" customHeight="1">
       <c r="A33" s="6">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -11889,21 +12940,21 @@
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="24">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="27">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="K33" s="26">
-        <v>8.680555555555555E-4</v>
+        <v>8.6805555555555551E-4</v>
       </c>
       <c r="L33" s="24">
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="M33" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="N33" s="27">
         <v>4.6296296296296294E-5</v>
@@ -11912,41 +12963,41 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="P33" s="26">
-        <v>6.597222222222222E-4</v>
+        <v>6.5972222222222224E-4</v>
       </c>
       <c r="Q33" s="21"/>
       <c r="R33" s="26">
-        <v>0.006574074074074074</v>
+        <v>6.5740740740740742E-3</v>
       </c>
       <c r="S33" s="26">
-        <v>0.008564814814814815</v>
+        <v>8.564814814814815E-3</v>
       </c>
       <c r="T33" s="26">
-        <v>0.0010416666666666667</v>
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="U33" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="V33" s="21"/>
       <c r="W33" s="24">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="X33" s="26">
-        <v>6.944444444444445E-4</v>
+        <v>6.9444444444444447E-4</v>
       </c>
       <c r="Y33" s="24">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="Z33" s="21"/>
       <c r="AA33" s="27">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="AB33" s="21"/>
       <c r="AC33" s="26">
-        <v>5.555555555555556E-4</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="AD33" s="24">
-        <v>4.976851851851852E-4</v>
+        <v>4.9768518518518521E-4</v>
       </c>
       <c r="AE33" s="26">
         <v>4.861111111111111E-4</v>
@@ -11991,9 +13042,9 @@
       <c r="AU33" s="15"/>
       <c r="AV33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:48" ht="15.75" customHeight="1">
       <c r="A34" s="6">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -12005,12 +13056,12 @@
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="24">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="27">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="K34" s="26">
         <v>8.564814814814815E-4</v>
@@ -12032,34 +13083,34 @@
       </c>
       <c r="Q34" s="21"/>
       <c r="R34" s="26">
-        <v>0.006643518518518518</v>
+        <v>6.6435185185185182E-3</v>
       </c>
       <c r="S34" s="26">
-        <v>0.008252314814814815</v>
+        <v>8.2523148148148148E-3</v>
       </c>
       <c r="T34" s="26">
-        <v>0.0011689814814814816</v>
+        <v>1.1689814814814816E-3</v>
       </c>
       <c r="U34" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="V34" s="21"/>
       <c r="W34" s="24">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="X34" s="26">
-        <v>6.365740740740741E-4</v>
+        <v>6.3657407407407413E-4</v>
       </c>
       <c r="Y34" s="24">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="Z34" s="21"/>
       <c r="AA34" s="27">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="AB34" s="21"/>
       <c r="AC34" s="26">
-        <v>5.902777777777778E-4</v>
+        <v>5.9027777777777778E-4</v>
       </c>
       <c r="AD34" s="24">
         <v>4.7453703703703704E-4</v>
@@ -12072,7 +13123,7 @@
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
       <c r="AJ34" s="24">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="AK34" s="27">
         <v>4.6296296296296294E-5</v>
@@ -12107,9 +13158,9 @@
       <c r="AU34" s="15"/>
       <c r="AV34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:48" ht="15.75" customHeight="1">
       <c r="A35" s="6">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -12119,28 +13170,28 @@
       <c r="E35" s="9"/>
       <c r="F35" s="21"/>
       <c r="G35" s="26">
-        <v>0.008518518518518519</v>
+        <v>8.518518518518519E-3</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="26">
-        <v>0.011840277777777778</v>
+        <v>1.1840277777777778E-2</v>
       </c>
       <c r="L35" s="26">
-        <v>0.008402777777777778</v>
+        <v>8.4027777777777781E-3</v>
       </c>
       <c r="M35" s="26">
-        <v>0.014907407407407407</v>
+        <v>1.4907407407407407E-2</v>
       </c>
       <c r="N35" s="26">
-        <v>0.0024074074074074076</v>
+        <v>2.4074074074074076E-3</v>
       </c>
       <c r="O35" s="26">
-        <v>0.008657407407407407</v>
+        <v>8.6574074074074071E-3</v>
       </c>
       <c r="P35" s="26">
-        <v>0.015509259259259259</v>
+        <v>1.5509259259259259E-2</v>
       </c>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -12149,36 +13200,36 @@
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="26">
-        <v>0.010520833333333333</v>
+        <v>1.0520833333333333E-2</v>
       </c>
       <c r="X35" s="26">
-        <v>0.013831018518518519</v>
+        <v>1.3831018518518519E-2</v>
       </c>
       <c r="Y35" s="26">
-        <v>0.003715277777777778</v>
+        <v>3.7152777777777778E-3</v>
       </c>
       <c r="Z35" s="21"/>
       <c r="AA35" s="21"/>
       <c r="AB35" s="32"/>
       <c r="AC35" s="26">
-        <v>0.0023032407407407407</v>
+        <v>2.3032407407407407E-3</v>
       </c>
       <c r="AD35" s="32"/>
       <c r="AE35" s="26">
-        <v>0.001979166666666667</v>
+        <v>1.9791666666666668E-3</v>
       </c>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
       <c r="AI35" s="32"/>
       <c r="AJ35" s="26">
-        <v>0.008657407407407407</v>
+        <v>8.6574074074074071E-3</v>
       </c>
       <c r="AK35" s="26">
-        <v>0.010613425925925925</v>
+        <v>1.0613425925925925E-2</v>
       </c>
       <c r="AL35" s="26">
-        <v>0.010833333333333334</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="AM35" s="14" t="s">
         <v>44</v>
@@ -12207,9 +13258,9 @@
       <c r="AU35" s="11"/>
       <c r="AV35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:48" ht="15.75" customHeight="1">
       <c r="A36" s="6">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -12219,77 +13270,77 @@
       <c r="E36" s="9"/>
       <c r="F36" s="21"/>
       <c r="G36" s="26">
-        <v>6.481481481481481E-4</v>
+        <v>6.4814814814814813E-4</v>
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="26">
-        <v>0.0030208333333333333</v>
+        <v>3.0208333333333333E-3</v>
       </c>
       <c r="K36" s="26">
-        <v>0.001261574074074074</v>
+        <v>1.261574074074074E-3</v>
       </c>
       <c r="L36" s="26">
-        <v>9.606481481481482E-4</v>
+        <v>9.6064814814814819E-4</v>
       </c>
       <c r="M36" s="26">
-        <v>0.0010416666666666667</v>
+        <v>1.0416666666666667E-3</v>
       </c>
       <c r="N36" s="26">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="O36" s="26">
-        <v>7.060185185185185E-4</v>
+        <v>7.0601851851851847E-4</v>
       </c>
       <c r="P36" s="26">
-        <v>7.638888888888889E-4</v>
+        <v>7.6388888888888893E-4</v>
       </c>
       <c r="Q36" s="21"/>
       <c r="R36" s="26">
-        <v>0.0022222222222222222</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="S36" s="21"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26">
-        <v>0.0011805555555555556</v>
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="V36" s="21"/>
       <c r="W36" s="26">
-        <v>7.523148148148148E-4</v>
+        <v>7.5231481481481482E-4</v>
       </c>
       <c r="X36" s="26">
-        <v>7.523148148148148E-4</v>
+        <v>7.5231481481481482E-4</v>
       </c>
       <c r="Y36" s="26">
-        <v>4.050925925925926E-4</v>
+        <v>4.0509259259259258E-4</v>
       </c>
       <c r="Z36" s="21"/>
       <c r="AA36" s="26">
-        <v>0.002939814814814815</v>
+        <v>2.9398148148148148E-3</v>
       </c>
       <c r="AB36" s="21"/>
       <c r="AC36" s="26">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="AD36" s="32"/>
       <c r="AE36" s="26">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
       <c r="AJ36" s="26">
-        <v>5.787037037037037E-4</v>
+        <v>5.7870370370370367E-4</v>
       </c>
       <c r="AK36" s="26">
-        <v>5.902777777777778E-4</v>
+        <v>5.9027777777777778E-4</v>
       </c>
       <c r="AL36" s="26">
-        <v>5.787037037037037E-4</v>
+        <v>5.7870370370370367E-4</v>
       </c>
       <c r="AM36" s="26">
-        <v>0.0025810185185185185</v>
+        <v>2.5810185185185185E-3</v>
       </c>
       <c r="AN36" s="14" t="s">
         <v>44</v>
@@ -12315,9 +13366,9 @@
       <c r="AU36" s="15"/>
       <c r="AV36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:48" ht="15.75" customHeight="1">
       <c r="A37" s="6">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -12332,42 +13383,42 @@
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="H37" s="41">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="I37" s="21"/>
       <c r="J37" s="26">
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="K37" s="26">
-        <v>3.125E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="L37" s="26">
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="M37" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="N37" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="O37" s="26">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="P37" s="26">
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="Q37" s="26">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="R37" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="S37" s="26">
-        <v>3.125E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="T37" s="26"/>
       <c r="U37" s="26">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="V37" s="26">
         <v>3.4722222222222224E-4</v>
@@ -12376,16 +13427,16 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="X37" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="Y37" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="Z37" s="26">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="AA37" s="26">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="AB37" s="26">
         <v>4.2824074074074075E-4</v>
@@ -12397,13 +13448,13 @@
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="AE37" s="26">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="AF37" s="26">
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="AG37" s="26">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="AH37" s="26">
         <v>3.7037037037037035E-4</v>
@@ -12413,16 +13464,16 @@
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="AK37" s="28">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="AL37" s="26">
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="AM37" s="26">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="AN37" s="26">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="AO37" s="14" t="s">
         <v>44</v>
@@ -12445,9 +13496,9 @@
       <c r="AU37" s="15"/>
       <c r="AV37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:48" ht="12.75">
       <c r="A38" s="6">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="17" t="s">
@@ -12461,74 +13512,74 @@
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="24">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="27"/>
       <c r="K38" s="26">
-        <v>0.020833333333333332</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="L38" s="24">
-        <v>6.481481481481481E-4</v>
+        <v>6.4814814814814813E-4</v>
       </c>
       <c r="M38" s="24">
-        <v>9.375E-4</v>
+        <v>9.3749999999999997E-4</v>
       </c>
       <c r="N38" s="27">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="O38" s="24">
-        <v>0.0010069444444444444</v>
+        <v>1.0069444444444444E-3</v>
       </c>
       <c r="P38" s="26">
-        <v>0.0035300925925925925</v>
+        <v>3.5300925925925925E-3</v>
       </c>
       <c r="Q38" s="21"/>
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="26"/>
       <c r="U38" s="24">
-        <v>5.439814814814814E-4</v>
+        <v>5.4398148148148144E-4</v>
       </c>
       <c r="V38" s="21"/>
       <c r="W38" s="24">
-        <v>6.597222222222222E-4</v>
+        <v>6.5972222222222224E-4</v>
       </c>
       <c r="X38" s="26">
-        <v>0.0033564814814814816</v>
+        <v>3.3564814814814816E-3</v>
       </c>
       <c r="Y38" s="24">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="Z38" s="21"/>
       <c r="AA38" s="27"/>
       <c r="AB38" s="21"/>
       <c r="AC38" s="26">
-        <v>0.003275462962962963</v>
+        <v>3.2754629629629631E-3</v>
       </c>
       <c r="AD38" s="24">
-        <v>0.003310185185185185</v>
+        <v>3.3101851851851851E-3</v>
       </c>
       <c r="AE38" s="28">
-        <v>0.001724537037037037</v>
+        <v>1.724537037037037E-3</v>
       </c>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
       <c r="AJ38" s="24">
-        <v>5.555555555555556E-4</v>
+        <v>5.5555555555555556E-4</v>
       </c>
       <c r="AK38" s="27">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="AL38" s="27">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="AM38" s="32"/>
       <c r="AN38" s="26">
-        <v>0.0024421296296296296</v>
+        <v>2.4421296296296296E-3</v>
       </c>
       <c r="AO38" s="28">
         <v>8.564814814814815E-4</v>
@@ -12551,9 +13602,9 @@
       <c r="AU38" s="11"/>
       <c r="AV38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:48" ht="12.75">
       <c r="A39" s="6">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -12585,11 +13636,11 @@
       <c r="AA39" s="21"/>
       <c r="AB39" s="32"/>
       <c r="AC39" s="26">
-        <v>0.010810185185185185</v>
+        <v>1.0810185185185185E-2</v>
       </c>
       <c r="AD39" s="32"/>
       <c r="AE39" s="26">
-        <v>0.014525462962962962</v>
+        <v>1.4525462962962962E-2</v>
       </c>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
@@ -12619,9 +13670,9 @@
       <c r="AU39" s="15"/>
       <c r="AV39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:48" ht="12.75">
       <c r="A40" s="6">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -12636,16 +13687,16 @@
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
       <c r="J40" s="26">
-        <v>0.002627314814814815</v>
+        <v>2.627314814814815E-3</v>
       </c>
       <c r="K40" s="26">
-        <v>9.490740740740741E-4</v>
+        <v>9.4907407407407408E-4</v>
       </c>
       <c r="L40" s="26">
-        <v>0.0015625</v>
+        <v>1.5625000000000001E-3</v>
       </c>
       <c r="M40" s="26">
-        <v>0.0024652777777777776</v>
+        <v>2.4652777777777776E-3</v>
       </c>
       <c r="N40" s="26">
         <v>3.4722222222222224E-4</v>
@@ -12658,7 +13709,7 @@
       </c>
       <c r="Q40" s="21"/>
       <c r="R40" s="26">
-        <v>0.0036574074074074074</v>
+        <v>3.6574074074074074E-3</v>
       </c>
       <c r="S40" s="21"/>
       <c r="T40" s="26"/>
@@ -12667,7 +13718,7 @@
       </c>
       <c r="V40" s="21"/>
       <c r="W40" s="26">
-        <v>0.0015509259259259259</v>
+        <v>1.5509259259259259E-3</v>
       </c>
       <c r="X40" s="26">
         <v>4.2824074074074075E-4</v>
@@ -12676,18 +13727,18 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="Z40" s="26">
-        <v>0.016134259259259258</v>
+        <v>1.6134259259259258E-2</v>
       </c>
       <c r="AA40" s="26">
-        <v>0.002523148148148148</v>
+        <v>2.5231481481481481E-3</v>
       </c>
       <c r="AB40" s="21"/>
       <c r="AC40" s="26">
-        <v>6.25E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="AD40" s="32"/>
       <c r="AE40" s="26">
-        <v>5.324074074074074E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
@@ -12697,25 +13748,25 @@
         <v>7.291666666666667E-4</v>
       </c>
       <c r="AK40" s="26">
-        <v>5.208333333333333E-4</v>
+        <v>5.2083333333333333E-4</v>
       </c>
       <c r="AL40" s="26">
-        <v>5.092592592592592E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="AM40" s="26">
-        <v>0.004166666666666667</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="AN40" s="26">
-        <v>6.481481481481481E-4</v>
+        <v>6.4814814814814813E-4</v>
       </c>
       <c r="AO40" s="26">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="AP40" s="26">
-        <v>0.002523148148148148</v>
+        <v>2.5231481481481481E-3</v>
       </c>
       <c r="AQ40" s="26">
-        <v>0.01915509259259259</v>
+        <v>1.9155092592592592E-2</v>
       </c>
       <c r="AR40" s="14" t="s">
         <v>44</v>
@@ -12729,9 +13780,9 @@
       <c r="AU40" s="15"/>
       <c r="AV40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:48" ht="12.75">
       <c r="A41" s="6">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -12751,13 +13802,13 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="K41" s="26">
-        <v>7.87037037037037E-4</v>
+        <v>7.8703703703703705E-4</v>
       </c>
       <c r="L41" s="24">
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="M41" s="24">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="N41" s="27">
         <v>4.6296296296296294E-5</v>
@@ -12766,28 +13817,28 @@
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="P41" s="26">
-        <v>6.365740740740741E-4</v>
+        <v>6.3657407407407413E-4</v>
       </c>
       <c r="Q41" s="21"/>
       <c r="R41" s="26">
-        <v>0.005983796296296296</v>
+        <v>5.9837962962962961E-3</v>
       </c>
       <c r="S41" s="26">
-        <v>0.007662037037037037</v>
+        <v>7.6620370370370366E-3</v>
       </c>
       <c r="T41" s="26"/>
       <c r="U41" s="24">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="V41" s="21"/>
       <c r="W41" s="24">
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="X41" s="26">
-        <v>6.25E-4</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="Y41" s="24">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="Z41" s="21"/>
       <c r="AA41" s="27">
@@ -12798,10 +13849,10 @@
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="AD41" s="24">
-        <v>5.092592592592592E-4</v>
+        <v>5.0925925925925921E-4</v>
       </c>
       <c r="AE41" s="26">
-        <v>4.62962962962963E-4</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
@@ -12811,13 +13862,13 @@
         <v>2.199074074074074E-4</v>
       </c>
       <c r="AK41" s="27">
-        <v>5.787037037037037E-5</v>
+        <v>5.7870370370370373E-5</v>
       </c>
       <c r="AL41" s="27">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="AM41" s="26">
-        <v>0.007280092592592592</v>
+        <v>7.2800925925925923E-3</v>
       </c>
       <c r="AN41" s="26">
         <v>4.5138888888888887E-4</v>
@@ -12827,7 +13878,7 @@
       </c>
       <c r="AP41" s="27"/>
       <c r="AQ41" s="26">
-        <v>0.011342592592592593</v>
+        <v>1.1342592592592593E-2</v>
       </c>
       <c r="AR41" s="26">
         <v>4.861111111111111E-4</v>
@@ -12841,9 +13892,9 @@
       <c r="AU41" s="11"/>
       <c r="AV41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:48" ht="12.75">
       <c r="A42" s="6">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -12852,7 +13903,7 @@
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="26">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="G42" s="26">
         <v>2.4305555555555555E-4</v>
@@ -12871,19 +13922,19 @@
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="M42" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="N42" s="26">
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="O42" s="26">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="P42" s="26">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="Q42" s="26">
-        <v>3.356481481481481E-4</v>
+        <v>3.3564814814814812E-4</v>
       </c>
       <c r="R42" s="26">
         <v>2.8935185185185184E-4</v>
@@ -12893,37 +13944,37 @@
       </c>
       <c r="T42" s="26"/>
       <c r="U42" s="26">
-        <v>2.314814814814815E-4</v>
+        <v>2.3148148148148149E-4</v>
       </c>
       <c r="V42" s="26">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="W42" s="26">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="X42" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="Y42" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="Z42" s="26">
-        <v>3.125E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="AA42" s="26">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="AB42" s="26">
-        <v>3.935185185185185E-4</v>
+        <v>3.9351851851851852E-4</v>
       </c>
       <c r="AC42" s="26">
         <v>2.8935185185185184E-4</v>
       </c>
       <c r="AD42" s="26">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="AE42" s="26">
-        <v>2.546296296296296E-4</v>
+        <v>2.5462962962962961E-4</v>
       </c>
       <c r="AF42" s="26">
         <v>3.2407407407407406E-4</v>
@@ -12932,11 +13983,11 @@
         <v>4.861111111111111E-4</v>
       </c>
       <c r="AH42" s="26">
-        <v>3.587962962962963E-4</v>
+        <v>3.5879629629629629E-4</v>
       </c>
       <c r="AI42" s="32"/>
       <c r="AJ42" s="26">
-        <v>3.125E-4</v>
+        <v>3.1250000000000001E-4</v>
       </c>
       <c r="AK42" s="26">
         <v>2.4305555555555555E-4</v>
@@ -12945,16 +13996,16 @@
         <v>2.4305555555555555E-4</v>
       </c>
       <c r="AM42" s="26">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="AN42" s="26">
-        <v>2.662037037037037E-4</v>
+        <v>2.6620370370370372E-4</v>
       </c>
       <c r="AO42" s="26">
         <v>2.0833333333333335E-4</v>
       </c>
       <c r="AP42" s="26">
-        <v>2.777777777777778E-4</v>
+        <v>2.7777777777777778E-4</v>
       </c>
       <c r="AQ42" s="26">
         <v>3.0092592592592595E-4</v>
@@ -12971,7 +14022,7 @@
       <c r="AU42" s="15"/>
       <c r="AV42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:48" ht="14.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -13021,12 +14072,12 @@
       <c r="AU43" s="37"/>
       <c r="AV43" s="37"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:48" ht="12.75">
       <c r="A44" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="39">
-        <f>combin(A42,2)</f>
+        <f>COMBIN(A42,2)</f>
         <v>820</v>
       </c>
       <c r="C44" s="2"/>
@@ -13073,7 +14124,7 @@
       <c r="AU44" s="37"/>
       <c r="AV44" s="37"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:48" ht="12.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -13123,7 +14174,7 @@
       <c r="AU45" s="37"/>
       <c r="AV45" s="37"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:48" ht="12.75">
       <c r="A46" s="2"/>
       <c r="E46" s="47"/>
       <c r="F46" s="33"/>
@@ -13170,7 +14221,7 @@
       <c r="AU46" s="37"/>
       <c r="AV46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:48" ht="12.75">
       <c r="A47" s="2"/>
       <c r="E47" s="63"/>
       <c r="F47" s="33"/>
@@ -13217,7 +14268,7 @@
       <c r="AU47" s="37"/>
       <c r="AV47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:48" ht="12.75">
       <c r="A48" s="2"/>
       <c r="F48" s="38"/>
       <c r="H48" s="5"/>
@@ -13262,10 +14313,10 @@
       <c r="AU48" s="64"/>
       <c r="AV48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:48" ht="12.75">
       <c r="A49" s="2"/>
       <c r="F49" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -13309,10 +14360,10 @@
       <c r="AU49" s="66"/>
       <c r="AV49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:48" ht="12.75">
       <c r="A50" s="2"/>
       <c r="F50" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -13356,24 +14407,24 @@
       <c r="AU50" s="5"/>
       <c r="AV50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:48" ht="12.75">
       <c r="I51" s="5"/>
       <c r="J51" s="47"/>
       <c r="K51" s="15"/>
       <c r="L51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:48" ht="12.75">
       <c r="C52" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:48" ht="12.75">
       <c r="C53" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D53" s="51" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeChangeMode.groovy","ecobeeChangeMode.groovy")</f>
@@ -13384,9 +14435,9 @@
       <c r="K53" s="5"/>
       <c r="L53" s="15"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:48" ht="12.75">
       <c r="C54" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D54" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeGenerateWeeklyStats.groovy","ecobeeGenerateWeeklyStats.groovy")</f>
@@ -13397,10 +14448,10 @@
       <c r="K54" s="5"/>
       <c r="L54" s="15"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:48" ht="12.75">
       <c r="A55" s="54"/>
       <c r="C55" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeManageClimate.groovy","ecobeeManageClimate.groovy")</f>
@@ -13410,10 +14461,10 @@
       <c r="J55" s="55"/>
       <c r="K55" s="56"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:48" ht="12.75">
       <c r="A56" s="54"/>
       <c r="C56" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/ecobeeResumeProg.groovy","ecobeeResumeProg.groovy")</f>
@@ -13423,10 +14474,10 @@
       <c r="J56" s="55"/>
       <c r="K56" s="56"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:48" ht="12.75">
       <c r="A57" s="54"/>
       <c r="C57" s="50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="52" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/MonitorAndSetEcobeeHumidity.groovy","MonitorAndSetEcobeeHumidity.groovy")</f>
@@ -13436,59 +14487,59 @@
       <c r="J57" s="57"/>
       <c r="K57" s="56"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:48" ht="12.75">
       <c r="C58" s="54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K58" s="56"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:48" ht="12.75">
       <c r="C59" s="58" t="str">
         <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/talking-alarm-clock.groovy","talking-alarm-clock.groovy")</f>
         <v>talking-alarm-clock.groovy</v>
       </c>
       <c r="K59" s="56"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:48" ht="12.75">
       <c r="I60" s="59"/>
       <c r="J60" s="59"/>
       <c r="K60" s="56"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:48" ht="12.75">
       <c r="I61" s="55"/>
       <c r="J61" s="55"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:48" ht="12.75">
       <c r="I62" s="55"/>
       <c r="J62" s="55"/>
       <c r="K62" s="56"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:48" ht="12.75">
       <c r="I63" s="55"/>
       <c r="J63" s="55"/>
       <c r="K63" s="56"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:48" ht="12.75">
       <c r="I64" s="55"/>
       <c r="J64" s="55"/>
       <c r="K64" s="56"/>
     </row>
-    <row r="65">
+    <row r="65" spans="9:11" ht="12.75">
       <c r="I65" s="55"/>
       <c r="J65" s="55"/>
       <c r="K65" s="56"/>
     </row>
-    <row r="66">
+    <row r="66" spans="9:11" ht="12.75">
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
       <c r="K66" s="60"/>
     </row>
-    <row r="67">
+    <row r="67" spans="9:11" ht="12.75">
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>